--- a/emv/dataset/enunciadoscinematica124.xlsx
+++ b/emv/dataset/enunciadoscinematica124.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEJANDRO\Repositorios\solucionador_automatico_CT\emv\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{68AFCE88-3CA2-4416-9962-CED4533F0629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E2B52-4AEA-4207-A265-316A65034EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enunciadoscinematica124" sheetId="1" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <t>[['t', '', '1.5', 's', 's'], ['t', 't', '5.0', 's', 's']]</t>
   </si>
   <si>
-    <t>[['v', 'vi', '0', 'm/s', 'm/s'], ['d', '', '18', 'm', 'm']]</t>
-  </si>
-  <si>
     <t>[['m', '', '60.0', 'kg', 'kg'], ['v', '', '40.0', 'm/s', 'm/s'], ['F', '', '350', 'N', 'N']]</t>
   </si>
   <si>
@@ -514,9 +511,6 @@
     <t>[['m', '', '0.90', 'kg', 'kg'], ['d', 'r', '2.50', 'm', 'm']]</t>
   </si>
   <si>
-    <t>[['v', 'vmin', 'm/s'], ['v', 'v', 'm/s'],  ['T', 'F', 'N'], ['v', 'v', 'm/s']]</t>
-  </si>
-  <si>
     <t>[['a', 'a', 'm/s2'], ['v', 'v', 'm/s']]</t>
   </si>
   <si>
@@ -526,9 +520,6 @@
     <t>[['a', 'am', 'm/s2']]</t>
   </si>
   <si>
-    <t>[['a', '', '8', 'm/s2', 'm/s2'], ['v', 'vi', '20', 'm/s', 'm/s'], ['t', '', '6', 's', 's']]</t>
-  </si>
-  <si>
     <t>[['a', 'g', 'm/s2']]</t>
   </si>
   <si>
@@ -544,9 +535,6 @@
     <t>[['a', 'a', 'm/s2'], ['T', 'F', 'N']]</t>
   </si>
   <si>
-    <t>[['v', 'vi', '0', 'm/s', 'm/s'], ['a', '', '5.0', 'm/s2', 'm/s2'], ['t', '', '4.0', 's', 's']]</t>
-  </si>
-  <si>
     <t>[['a', 'a', 'm/s2'], ['v', 'v', 'm/s'], ['d', 'd', 'm']]</t>
   </si>
   <si>
@@ -556,9 +544,6 @@
     <t>[['a', 'a', 'm/s2'], ['t', 't', 's']]</t>
   </si>
   <si>
-    <t>[['t', 't', 's'], ['d', 'd', 'm'], ['v', 'v', 'm/s'], ['a', 'a', 'm/s2'], ['v', 'v', 'm/s']]</t>
-  </si>
-  <si>
     <t>[['v', '', '13', 'm/s', 'm/s'], ['a', '', '2.0', 'm/s2', 'm/s2'], ['t', 't', '6.0', 's', 's'], ['t', '', '6.0', 's', 's'], ['t', '', '6.0', 's', 's']]</t>
   </si>
   <si>
@@ -592,9 +577,6 @@
     <t>[['t', 't', 's'], ['a', 'a', 'm/s2']]</t>
   </si>
   <si>
-    <t>[['v', 'vi', '0', 'm/s', 'm/s'], ['a', '', '8.00', 'm/s2', 'm/s2'], ['t', '', '5.00', 's', 's'], ['t', '', '5.00', 's', 's'], ['t', '', '5.00', 's', 's']]</t>
-  </si>
-  <si>
     <t>[['a', 'a', 'm/s2'], ['v', 'v', 'm/s'], ['v', 'vm', 'm/s'], ['d', 'd', 'm']]</t>
   </si>
   <si>
@@ -898,9 +880,6 @@
     <t>Un robot llamado Fred se mueve inicialmente a 2.20 m/s por un pasillo en una terminal espacial. Después acelera a 4.80 m/s en un tiempo de 0.20 s. Determine el tamaño o la magnitud de su aceleración media a lo largo de la trayectoria recorrida.</t>
   </si>
   <si>
-    <t>Se deja caer una pelota desde la punta de un edificio de 40 metros de altura, supongamos que no existe la resistencia del viento. 1)¿Cuanto tardo la pelota en llegar al piso? 2)¿Con que velocidad llego?</t>
-  </si>
-  <si>
     <t>Un cordel enredado en el borde de una rueda de 20 cm de diámetro se jala a una tasa de 75 cm/s. ¿Cuántas revoluciones habrá dado la rueda cuando se hayan desenredado 9.0 m de cordel? ¿Cuánto tiempo llevará este proceso?</t>
   </si>
   <si>
@@ -928,9 +907,6 @@
     <t>Un avión de reacción aterriza en un portaaviones a 63 m/s. (A) ¿Cuál es la aceleración (supuesta constante) si se detiene en 2.0 s debido a un cable sujetador que engancha el avión y lo detiene?  (B) Sí el avión hace contacto con la pista en la posición xi=0, ¿cuál es su posición final?</t>
   </si>
   <si>
-    <t>Una pelota de béisbol sale golpeada por el bate con una velocidad de 30 m/s a un ángulo de 30º. ¿Cuáles son las componentes horizontal y vertical de su velocidad después de 3 s?</t>
-  </si>
-  <si>
     <t>Desde un globo que está a 300 m sobre el suelo y se eleva a 13 m/s, se deja caer una bolsa de lastre. Para la bolsa, encuentre: a) la altura máxima que alcanza, b) su posición y velocidad después de 5.0 s de haberse desprendido y c) el tiempo que tarda en bajar y golpear el suelo.</t>
   </si>
   <si>
@@ -1025,12 +1001,36 @@
   </si>
   <si>
     <t>Un piloto en alas delta vuela a 15.0 [m/s] en dirección paralela al suelo y a una altura de 100 [m] . Su misión es dejar caer  una caja de provisiones en un campamento de scouts.  ¿A qué distancia del campamento debe soltar la caja para que cumpla su misión? ¿Qué suposición se ha hecho para resolver esta situación?</t>
+  </si>
+  <si>
+    <t>[['v', 'vmin', 'm/s'], ['v', 'v', 'm/s'],  ['F', 'T', 'N'], ['v', 'v', 'm/s']]</t>
+  </si>
+  <si>
+    <t>Una pelota de béisbol sale golpeada por el bate con una velocidad de 30 m/s a un ángulo de 30 º. ¿Cuáles son las componentes horizontal y vertical de su velocidad después de 3 s?</t>
+  </si>
+  <si>
+    <t>Se deja caer una pelota desde la punta de un edificio de 40 metros de altura, supongamos que no existe la resistencia del viento. 1)¿Cuánto tardó la pelota en llegar al piso? 2)¿Con qué velocidad llegó?</t>
+  </si>
+  <si>
+    <t>[['v', 'vi', '0', 'm/s', 'm/s'], ['a', 'a', '5.0', 'm/s2', 'm/s2'], ['t', '', '4.0', 's', 's']]</t>
+  </si>
+  <si>
+    <t>['a', 'a', 'm/s2'], ['v', 'v', 'm/s']]</t>
+  </si>
+  <si>
+    <t>[['v', 'vi', '0', 'm/s', 'm/s'], ['d', 'd', '18', 'm', 'm']]</t>
+  </si>
+  <si>
+    <t>[['v', 'vi', '0', 'm/s', 'm/s'], ['a', 'a', '8.00', 'm/s2', 'm/s2'], ['t', '', '5.00', 's', 's'], ['t', '', '5.00', 's', 's'], ['t', '', '5.00', 's', 's']]</t>
+  </si>
+  <si>
+    <t>[['a', 'a', '8', 'm/s2', 'm/s2'], ['v', 'vi', '20', 'm/s', 'm/s'], ['t', '', '6', 's', 's']]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1864,11 +1864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,21 +1895,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1918,12 +1918,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1932,12 +1932,12 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1951,13 +1951,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1974,12 +1974,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1988,12 +1988,12 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -2007,13 +2007,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -2058,12 +2058,12 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -2086,12 +2086,12 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -2100,12 +2100,12 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -2156,12 +2156,12 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -2198,12 +2198,12 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -2259,13 +2259,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -2315,21 +2315,21 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -2338,12 +2338,12 @@
         <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -2352,12 +2352,12 @@
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -2366,7 +2366,7 @@
         <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -2394,12 +2394,12 @@
         <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -2427,13 +2427,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
@@ -2483,13 +2483,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
         <v>68</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -2506,12 +2506,12 @@
         <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -2520,12 +2520,12 @@
         <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -2534,12 +2534,12 @@
         <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -2553,13 +2553,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D49" t="s">
         <v>74</v>
@@ -2567,13 +2567,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D50" t="s">
         <v>75</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -2595,13 +2595,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -2637,69 +2637,69 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
         <v>80</v>
-      </c>
-      <c r="D55" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
         <v>83</v>
-      </c>
-      <c r="D57" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
         <v>85</v>
-      </c>
-      <c r="D58" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -2707,83 +2707,83 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
         <v>89</v>
-      </c>
-      <c r="D61" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="C63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" t="s">
         <v>92</v>
-      </c>
-      <c r="D63" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
         <v>57</v>
@@ -2791,13 +2791,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s">
         <v>28</v>
@@ -2805,13 +2805,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
         <v>46</v>
@@ -2819,41 +2819,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" t="s">
         <v>99</v>
-      </c>
-      <c r="D69" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
         <v>31</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
         <v>28</v>
@@ -2875,13 +2875,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
         <v>34</v>
@@ -2889,13 +2889,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
         <v>34</v>
@@ -2903,111 +2903,111 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" t="s">
         <v>106</v>
-      </c>
-      <c r="D74" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D76" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
       </c>
       <c r="C77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" t="s">
         <v>109</v>
-      </c>
-      <c r="D77" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" t="s">
         <v>111</v>
-      </c>
-      <c r="D78" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
         <v>28</v>
@@ -3015,55 +3015,55 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D83" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B85" t="s">
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D85" t="s">
         <v>52</v>
@@ -3071,27 +3071,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
         <v>22</v>
@@ -3099,27 +3099,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" t="s">
         <v>121</v>
-      </c>
-      <c r="D88" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D89" t="s">
         <v>34</v>
@@ -3127,27 +3127,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" t="s">
         <v>125</v>
-      </c>
-      <c r="D90" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D91" t="s">
         <v>22</v>
@@ -3155,41 +3155,41 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B92" t="s">
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
@@ -3197,13 +3197,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
@@ -3211,13 +3211,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -3225,41 +3225,41 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
       </c>
       <c r="C97" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" t="s">
         <v>131</v>
-      </c>
-      <c r="D97" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B98" t="s">
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D98" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D99" t="s">
         <v>34</v>
@@ -3267,97 +3267,97 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D101" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="D102" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D105" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D106" t="s">
         <v>52</v>
@@ -3365,111 +3365,111 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
+        <v>139</v>
+      </c>
+      <c r="D107" t="s">
         <v>140</v>
-      </c>
-      <c r="D107" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
       </c>
       <c r="C108" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" t="s">
         <v>143</v>
-      </c>
-      <c r="D108" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" t="s">
         <v>145</v>
-      </c>
-      <c r="D109" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D110" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="C112" t="s">
+        <v>147</v>
+      </c>
+      <c r="D112" t="s">
         <v>148</v>
-      </c>
-      <c r="D112" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
+        <v>149</v>
+      </c>
+      <c r="D113" t="s">
         <v>150</v>
-      </c>
-      <c r="D113" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D114" t="s">
         <v>52</v>
@@ -3477,55 +3477,55 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D115" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D116" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D117" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D118" t="s">
         <v>31</v>
@@ -3533,13 +3533,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D119" t="s">
         <v>31</v>
@@ -3547,41 +3547,41 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
       </c>
       <c r="C120" t="s">
+        <v>156</v>
+      </c>
+      <c r="D120" t="s">
         <v>157</v>
-      </c>
-      <c r="D120" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D121" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -3589,44 +3589,44 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123" t="s">
+        <v>159</v>
+      </c>
+      <c r="D123" t="s">
         <v>160</v>
-      </c>
-      <c r="D123" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B124" t="s">
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D124" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D125" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/emv/dataset/enunciadoscinematica124.xlsx
+++ b/emv/dataset/enunciadoscinematica124.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALEJANDRO\Repositorios\solucionador_automatico_CT\emv\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E2B52-4AEA-4207-A265-316A65034EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1534880C-4052-48FC-95FD-3D529933AF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="334">
   <si>
     <t>enunciados</t>
   </si>
@@ -418,9 +418,6 @@
     <t>[['w', 'w', 'rad/s'], ['v', 'vt', 'm/s']]</t>
   </si>
   <si>
-    <t>[['w', '', '900', 'rpm', 'rad/s'], ['w', '', '300', 'rpm', 'rad/s'], ['n', '', '50', 'rev', 'rev']]</t>
-  </si>
-  <si>
     <t>[['v', 'v', '30', 'm/s', 'm/s']]</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>[['m', '', '0.90', 'kg', 'kg'], ['d', 'r', '2.50', 'm', 'm']]</t>
   </si>
   <si>
-    <t>[['a', 'a', 'm/s2'], ['v', 'v', 'm/s']]</t>
-  </si>
-  <si>
     <t>[['a', 'a', 'm/s2'], ['d', 'd', 'm'], ['v', 'v', 'm/s'], ['t', 't', 's'], ['t', 't', 's']]</t>
   </si>
   <si>
@@ -1025,6 +1019,9 @@
   </si>
   <si>
     <t>[['a', 'a', '8', 'm/s2', 'm/s2'], ['v', 'vi', '20', 'm/s', 'm/s'], ['t', '', '6', 's', 's']]</t>
+  </si>
+  <si>
+    <t>[['w', '', '900', 'rpm', 'rad/s'], ['w', '', '300', 'rpm', 'rad/s'], ['n', '', '50', 'rev', 'rev'], ['n', '', '50', 'rev', 'rev']]</t>
   </si>
 </sst>
 </file>
@@ -1867,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,21 +1892,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1918,12 +1915,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1932,12 +1929,12 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1951,13 +1948,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1965,7 +1962,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1974,12 +1971,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1988,12 +1985,12 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -2007,13 +2004,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -2021,7 +2018,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -2035,7 +2032,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -2049,7 +2046,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -2058,12 +2055,12 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -2077,7 +2074,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -2086,12 +2083,12 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -2100,12 +2097,12 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2147,7 +2144,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -2156,12 +2153,12 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -2175,7 +2172,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -2189,7 +2186,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -2198,12 +2195,12 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -2217,7 +2214,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -2231,13 +2228,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -2245,7 +2242,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -2259,13 +2256,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -2287,7 +2284,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -2301,7 +2298,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -2315,21 +2312,21 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -2338,12 +2335,12 @@
         <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -2352,12 +2349,12 @@
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -2366,7 +2363,7 @@
         <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,7 +2382,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -2394,12 +2391,12 @@
         <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -2413,7 +2410,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -2427,13 +2424,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -2441,7 +2438,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -2455,7 +2452,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -2469,7 +2466,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
@@ -2483,13 +2480,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
         <v>68</v>
@@ -2497,7 +2494,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -2506,12 +2503,12 @@
         <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -2520,12 +2517,12 @@
         <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -2534,12 +2531,12 @@
         <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -2553,13 +2550,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D49" t="s">
         <v>74</v>
@@ -2567,13 +2564,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D50" t="s">
         <v>75</v>
@@ -2581,7 +2578,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -2595,13 +2592,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
@@ -2609,7 +2606,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -2623,13 +2620,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -2637,7 +2634,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
@@ -2651,7 +2648,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -2660,12 +2657,12 @@
         <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -2679,7 +2676,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -2693,7 +2690,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -2707,7 +2704,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
@@ -2716,12 +2713,12 @@
         <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -2735,7 +2732,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
@@ -2744,12 +2741,12 @@
         <v>90</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -2763,7 +2760,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -2772,12 +2769,12 @@
         <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -2791,7 +2788,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
@@ -2805,7 +2802,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
@@ -2819,7 +2816,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
@@ -2828,12 +2825,12 @@
         <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
@@ -2847,7 +2844,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -2861,7 +2858,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -2889,7 +2886,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -2903,7 +2900,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
@@ -2917,7 +2914,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
@@ -2926,26 +2923,26 @@
         <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D76" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
@@ -2959,7 +2956,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -2973,13 +2970,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D79" t="s">
         <v>89</v>
@@ -2987,7 +2984,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
@@ -3001,7 +2998,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
@@ -3015,7 +3012,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -3024,12 +3021,12 @@
         <v>114</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -3038,12 +3035,12 @@
         <v>115</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -3052,12 +3049,12 @@
         <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B85" t="s">
         <v>13</v>
@@ -3071,7 +3068,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -3080,12 +3077,12 @@
         <v>118</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -3099,7 +3096,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -3141,7 +3138,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -3155,7 +3152,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B92" t="s">
         <v>13</v>
@@ -3164,18 +3161,18 @@
         <v>127</v>
       </c>
       <c r="D92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s">
         <v>128</v>
@@ -3183,13 +3180,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
@@ -3197,7 +3194,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
@@ -3211,13 +3208,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -3225,7 +3222,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
@@ -3239,27 +3236,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B98" t="s">
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>132</v>
+        <v>333</v>
       </c>
       <c r="D98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D99" t="s">
         <v>34</v>
@@ -3267,69 +3264,69 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D103" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D104" t="s">
         <v>80</v>
@@ -3337,27 +3334,27 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D105" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D106" t="s">
         <v>52</v>
@@ -3365,111 +3362,111 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" t="s">
         <v>139</v>
-      </c>
-      <c r="D107" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
       </c>
       <c r="C108" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" t="s">
         <v>142</v>
-      </c>
-      <c r="D108" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
+        <v>143</v>
+      </c>
+      <c r="D109" t="s">
         <v>144</v>
-      </c>
-      <c r="D109" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D110" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="C112" t="s">
+        <v>146</v>
+      </c>
+      <c r="D112" t="s">
         <v>147</v>
-      </c>
-      <c r="D112" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" t="s">
         <v>149</v>
-      </c>
-      <c r="D113" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D114" t="s">
         <v>52</v>
@@ -3477,55 +3474,55 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D115" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D116" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D118" t="s">
         <v>31</v>
@@ -3533,13 +3530,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D119" t="s">
         <v>31</v>
@@ -3547,41 +3544,41 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
       </c>
       <c r="C120" t="s">
+        <v>155</v>
+      </c>
+      <c r="D120" t="s">
         <v>156</v>
-      </c>
-      <c r="D120" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D121" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -3589,44 +3586,44 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123" t="s">
+        <v>158</v>
+      </c>
+      <c r="D123" t="s">
         <v>159</v>
-      </c>
-      <c r="D123" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B124" t="s">
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D124" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D125" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
